--- a/docs/temp.xlsx
+++ b/docs/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\06_python\Project#2 - validasi_valins\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8B5326-3537-4610-B084-8C8E8902F7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47348120-E378-4FB9-A1E1-F02617AF827F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>No</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Last Updated</t>
+  </si>
+  <si>
+    <t>adsds</t>
   </si>
 </sst>
 </file>
@@ -421,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,6 +477,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/temp.xlsx
+++ b/docs/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\06_python\Project#2 - validasi_valins\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432EA389-7474-4689-A441-4867090A02E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8B5326-3537-4610-B084-8C8E8902F7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,10 +424,14 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
